--- a/misc/1606583257767_Plan.xlsx
+++ b/misc/1606583257767_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noago\Documents\DHBW\1. Semester\Website Projekt\Naturex\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F083F19-BF24-4511-B9D5-AB5C3151489A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A0370-0BF0-4B8B-8F33-C153FE0EDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3195" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,18 +205,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color indexed="64"/>
@@ -296,6 +284,18 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -312,16 +312,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02392D7E-01AA-4DF2-A019-E82ABB142B43}" name="Table1" displayName="Table1" ref="A2:H17" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02392D7E-01AA-4DF2-A019-E82ABB142B43}" name="Table1" displayName="Table1" ref="A2:H17" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:H17" xr:uid="{C228236D-2ECB-4FD2-8800-0CF9993C829B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7289C1CF-9D72-499C-AC10-623727354529}" name="Aufgaben"/>
-    <tableColumn id="2" xr3:uid="{0C2F3054-C163-4800-821F-D797A8E073B2}" name="Dome" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{EDB330C1-EFAD-4114-918F-48E609CF09A9}" name="Tobi" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{669A274D-70DC-46BA-873A-8896A715A060}" name="Noah" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A091B1BE-8D3E-4B86-A6B3-6294D7B9585D}" name="Andi" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{76F4BC3A-E2DD-43D9-978E-3515BE1F8994}" name="Jakob" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{06236806-FB25-46A1-A039-DC4B543CE7B6}" name="Tim" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0C2F3054-C163-4800-821F-D797A8E073B2}" name="Dome" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{EDB330C1-EFAD-4114-918F-48E609CF09A9}" name="Tobi" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{669A274D-70DC-46BA-873A-8896A715A060}" name="Noah" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A091B1BE-8D3E-4B86-A6B3-6294D7B9585D}" name="Andi" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{76F4BC3A-E2DD-43D9-978E-3515BE1F8994}" name="Jakob" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{06236806-FB25-46A1-A039-DC4B543CE7B6}" name="Tim" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{EF62BD2E-1DA1-4ADE-9470-77D05BC7EE18}" name="Fertig"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +708,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
